--- a/natmiOut/OldD4/LR-pairs_lrc2p/Egf-Egfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Egf-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07591160393862641</v>
+        <v>0.088422</v>
       </c>
       <c r="H2">
-        <v>0.07591160393862641</v>
+        <v>0.265266</v>
       </c>
       <c r="I2">
-        <v>0.06810182303176432</v>
+        <v>0.05306498573333137</v>
       </c>
       <c r="J2">
-        <v>0.06810182303176432</v>
+        <v>0.05560514240556082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.897941217831048</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N2">
-        <v>0.897941217831048</v>
+        <v>3.633172</v>
       </c>
       <c r="O2">
-        <v>0.01181103953983894</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P2">
-        <v>0.01181103953983894</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q2">
-        <v>0.06816415808815837</v>
+        <v>0.107084111528</v>
       </c>
       <c r="R2">
-        <v>0.06816415808815837</v>
+        <v>0.963757003752</v>
       </c>
       <c r="S2">
-        <v>0.0008043533245632824</v>
+        <v>0.0007825040087759441</v>
       </c>
       <c r="T2">
-        <v>0.0008043533245632824</v>
+        <v>0.0008887450840468044</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07591160393862641</v>
+        <v>0.088422</v>
       </c>
       <c r="H3">
-        <v>0.07591160393862641</v>
+        <v>0.265266</v>
       </c>
       <c r="I3">
-        <v>0.06810182303176432</v>
+        <v>0.05306498573333137</v>
       </c>
       <c r="J3">
-        <v>0.06810182303176432</v>
+        <v>0.05560514240556082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.7871225945224</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N3">
-        <v>56.7871225945224</v>
+        <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7469475027972082</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P3">
-        <v>0.7469475027972082</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q3">
-        <v>4.310801559209607</v>
+        <v>5.399061408572</v>
       </c>
       <c r="R3">
-        <v>4.310801559209607</v>
+        <v>48.591552677148</v>
       </c>
       <c r="S3">
-        <v>0.05086848664951376</v>
+        <v>0.03945297892984247</v>
       </c>
       <c r="T3">
-        <v>0.05086848664951376</v>
+        <v>0.04480953539106979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07591160393862641</v>
+        <v>0.088422</v>
       </c>
       <c r="H4">
-        <v>0.07591160393862641</v>
+        <v>0.265266</v>
       </c>
       <c r="I4">
-        <v>0.06810182303176432</v>
+        <v>0.05306498573333137</v>
       </c>
       <c r="J4">
-        <v>0.06810182303176432</v>
+        <v>0.05560514240556082</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.421752113583795</v>
+        <v>0.132278</v>
       </c>
       <c r="N4">
-        <v>0.421752113583795</v>
+        <v>0.396834</v>
       </c>
       <c r="O4">
-        <v>0.005547502209087931</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P4">
-        <v>0.005547502209087931</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q4">
-        <v>0.03201587940665163</v>
+        <v>0.011696285316</v>
       </c>
       <c r="R4">
-        <v>0.03201587940665163</v>
+        <v>0.105266567844</v>
       </c>
       <c r="S4">
-        <v>0.0003777950137116279</v>
+        <v>8.54691701407456E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003777950137116279</v>
+        <v>9.707337463864347E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07591160393862641</v>
+        <v>0.088422</v>
       </c>
       <c r="H5">
-        <v>0.07591160393862641</v>
+        <v>0.265266</v>
       </c>
       <c r="I5">
-        <v>0.06810182303176432</v>
+        <v>0.05306498573333137</v>
       </c>
       <c r="J5">
-        <v>0.06810182303176432</v>
+        <v>0.05560514240556082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.918771390257</v>
+        <v>0.655122</v>
       </c>
       <c r="N5">
-        <v>17.918771390257</v>
+        <v>1.965366</v>
       </c>
       <c r="O5">
-        <v>0.2356939554538648</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P5">
-        <v>0.2356939554538648</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q5">
-        <v>1.360242676843979</v>
+        <v>0.057927197484</v>
       </c>
       <c r="R5">
-        <v>1.360242676843979</v>
+        <v>0.521344777356</v>
       </c>
       <c r="S5">
-        <v>0.01605118804397565</v>
+        <v>0.0004232958895730623</v>
       </c>
       <c r="T5">
-        <v>0.01605118804397565</v>
+        <v>0.0004807670462209694</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.567666244447911</v>
+        <v>0.088422</v>
       </c>
       <c r="H6">
-        <v>0.567666244447911</v>
+        <v>0.265266</v>
       </c>
       <c r="I6">
-        <v>0.5092647779087017</v>
+        <v>0.05306498573333137</v>
       </c>
       <c r="J6">
-        <v>0.5092647779087017</v>
+        <v>0.05560514240556082</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.897941217831048</v>
+        <v>19.068426</v>
       </c>
       <c r="N6">
-        <v>0.897941217831048</v>
+        <v>38.136852</v>
       </c>
       <c r="O6">
-        <v>0.01181103953983894</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P6">
-        <v>0.01181103953983894</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q6">
-        <v>0.5097309188611346</v>
+        <v>1.686068363772</v>
       </c>
       <c r="R6">
-        <v>0.5097309188611346</v>
+        <v>10.116410182632</v>
       </c>
       <c r="S6">
-        <v>0.006014946428126972</v>
+        <v>0.01232073773499914</v>
       </c>
       <c r="T6">
-        <v>0.006014946428126972</v>
+        <v>0.00932902150958461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.567666244447911</v>
+        <v>1.011337</v>
       </c>
       <c r="H7">
-        <v>0.567666244447911</v>
+        <v>3.034011</v>
       </c>
       <c r="I7">
-        <v>0.5092647779087017</v>
+        <v>0.6069370007078572</v>
       </c>
       <c r="J7">
-        <v>0.5092647779087017</v>
+        <v>0.6359903406958977</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.7871225945224</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N7">
-        <v>56.7871225945224</v>
+        <v>3.633172</v>
       </c>
       <c r="O7">
-        <v>0.7469475027972082</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P7">
-        <v>0.7469475027972082</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q7">
-        <v>32.23613261623564</v>
+        <v>1.224787090321333</v>
       </c>
       <c r="R7">
-        <v>32.23613261623564</v>
+        <v>11.023083812892</v>
       </c>
       <c r="S7">
-        <v>0.3803940541214796</v>
+        <v>0.008949981415523705</v>
       </c>
       <c r="T7">
-        <v>0.3803940541214796</v>
+        <v>0.0101651261797363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.567666244447911</v>
+        <v>1.011337</v>
       </c>
       <c r="H8">
-        <v>0.567666244447911</v>
+        <v>3.034011</v>
       </c>
       <c r="I8">
-        <v>0.5092647779087017</v>
+        <v>0.6069370007078572</v>
       </c>
       <c r="J8">
-        <v>0.5092647779087017</v>
+        <v>0.6359903406958977</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421752113583795</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N8">
-        <v>0.421752113583795</v>
+        <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.005547502209087931</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P8">
-        <v>0.005547502209087931</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q8">
-        <v>0.2394144384060817</v>
+        <v>61.75239835969533</v>
       </c>
       <c r="R8">
-        <v>0.2394144384060817</v>
+        <v>555.771585237258</v>
       </c>
       <c r="S8">
-        <v>0.002825147480459198</v>
+        <v>0.4512480757274218</v>
       </c>
       <c r="T8">
-        <v>0.002825147480459198</v>
+        <v>0.5125143187645421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.567666244447911</v>
+        <v>1.011337</v>
       </c>
       <c r="H9">
-        <v>0.567666244447911</v>
+        <v>3.034011</v>
       </c>
       <c r="I9">
-        <v>0.5092647779087017</v>
+        <v>0.6069370007078572</v>
       </c>
       <c r="J9">
-        <v>0.5092647779087017</v>
+        <v>0.6359903406958977</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>17.918771390257</v>
+        <v>0.132278</v>
       </c>
       <c r="N9">
-        <v>17.918771390257</v>
+        <v>0.396834</v>
       </c>
       <c r="O9">
-        <v>0.2356939554538648</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P9">
-        <v>0.2356939554538648</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q9">
-        <v>10.17188166022786</v>
+        <v>0.133777635686</v>
       </c>
       <c r="R9">
-        <v>10.17188166022786</v>
+        <v>1.203998721174</v>
       </c>
       <c r="S9">
-        <v>0.1200306298786359</v>
+        <v>0.0009775636620143317</v>
       </c>
       <c r="T9">
-        <v>0.1200306298786359</v>
+        <v>0.001110288112538981</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.125172837225396</v>
+        <v>1.011337</v>
       </c>
       <c r="H10">
-        <v>0.125172837225396</v>
+        <v>3.034011</v>
       </c>
       <c r="I10">
-        <v>0.1122950638218593</v>
+        <v>0.6069370007078572</v>
       </c>
       <c r="J10">
-        <v>0.1122950638218593</v>
+        <v>0.6359903406958977</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.897941217831048</v>
+        <v>0.655122</v>
       </c>
       <c r="N10">
-        <v>0.897941217831048</v>
+        <v>1.965366</v>
       </c>
       <c r="O10">
-        <v>0.01181103953983894</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P10">
-        <v>0.01181103953983894</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q10">
-        <v>0.1123978498975396</v>
+        <v>0.662549118114</v>
       </c>
       <c r="R10">
-        <v>0.1123978498975396</v>
+        <v>5.962942063025999</v>
       </c>
       <c r="S10">
-        <v>0.001326321438928717</v>
+        <v>0.004841496404437268</v>
       </c>
       <c r="T10">
-        <v>0.001326321438928717</v>
+        <v>0.005498829501978881</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.125172837225396</v>
+        <v>1.011337</v>
       </c>
       <c r="H11">
-        <v>0.125172837225396</v>
+        <v>3.034011</v>
       </c>
       <c r="I11">
-        <v>0.1122950638218593</v>
+        <v>0.6069370007078572</v>
       </c>
       <c r="J11">
-        <v>0.1122950638218593</v>
+        <v>0.6359903406958977</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.7871225945224</v>
+        <v>19.068426</v>
       </c>
       <c r="N11">
-        <v>56.7871225945224</v>
+        <v>38.136852</v>
       </c>
       <c r="O11">
-        <v>0.7469475027972082</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P11">
-        <v>0.7469475027972082</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q11">
-        <v>7.108205253022759</v>
+        <v>19.284604745562</v>
       </c>
       <c r="R11">
-        <v>7.108205253022759</v>
+        <v>115.707628473372</v>
       </c>
       <c r="S11">
-        <v>0.08387851749819093</v>
+        <v>0.14091988349846</v>
       </c>
       <c r="T11">
-        <v>0.08387851749819093</v>
+        <v>0.1067017781371013</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.125172837225396</v>
+        <v>0.1361056666666667</v>
       </c>
       <c r="H12">
-        <v>0.125172837225396</v>
+        <v>0.4083169999999999</v>
       </c>
       <c r="I12">
-        <v>0.1122950638218593</v>
+        <v>0.08168154147036055</v>
       </c>
       <c r="J12">
-        <v>0.1122950638218593</v>
+        <v>0.08559153804713522</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.421752113583795</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N12">
-        <v>0.421752113583795</v>
+        <v>3.633172</v>
       </c>
       <c r="O12">
-        <v>0.005547502209087931</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P12">
-        <v>0.005547502209087931</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q12">
-        <v>0.05279190866309109</v>
+        <v>0.1648317657248889</v>
       </c>
       <c r="R12">
-        <v>0.05279190866309109</v>
+        <v>1.483485891524</v>
       </c>
       <c r="S12">
-        <v>0.0006229571146214347</v>
+        <v>0.001204487907803364</v>
       </c>
       <c r="T12">
-        <v>0.0006229571146214347</v>
+        <v>0.001368022009917362</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.125172837225396</v>
+        <v>0.1361056666666667</v>
       </c>
       <c r="H13">
-        <v>0.125172837225396</v>
+        <v>0.4083169999999999</v>
       </c>
       <c r="I13">
-        <v>0.1122950638218593</v>
+        <v>0.08168154147036055</v>
       </c>
       <c r="J13">
-        <v>0.1122950638218593</v>
+        <v>0.08559153804713522</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.918771390257</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N13">
-        <v>17.918771390257</v>
+        <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.2356939554538648</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P13">
-        <v>0.2356939554538648</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q13">
-        <v>2.242943454511722</v>
+        <v>8.310633692836221</v>
       </c>
       <c r="R13">
-        <v>2.242943454511722</v>
+        <v>74.79570323552599</v>
       </c>
       <c r="S13">
-        <v>0.02646726777011821</v>
+        <v>0.06072893622890414</v>
       </c>
       <c r="T13">
-        <v>0.02646726777011821</v>
+        <v>0.06897414317053613</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.183277332420736</v>
+        <v>0.1361056666666667</v>
       </c>
       <c r="H14">
-        <v>0.183277332420736</v>
+        <v>0.4083169999999999</v>
       </c>
       <c r="I14">
-        <v>0.1644217723069316</v>
+        <v>0.08168154147036055</v>
       </c>
       <c r="J14">
-        <v>0.1644217723069316</v>
+        <v>0.08559153804713522</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.897941217831048</v>
+        <v>0.132278</v>
       </c>
       <c r="N14">
-        <v>0.897941217831048</v>
+        <v>0.396834</v>
       </c>
       <c r="O14">
-        <v>0.01181103953983894</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P14">
-        <v>0.01181103953983894</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q14">
-        <v>0.1645722710747015</v>
+        <v>0.01800378537533333</v>
       </c>
       <c r="R14">
-        <v>0.1645722710747015</v>
+        <v>0.162034068378</v>
       </c>
       <c r="S14">
-        <v>0.001941992053927564</v>
+        <v>0.0001315604530711015</v>
       </c>
       <c r="T14">
-        <v>0.001941992053927564</v>
+        <v>0.0001494225008569774</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.183277332420736</v>
+        <v>0.1361056666666667</v>
       </c>
       <c r="H15">
-        <v>0.183277332420736</v>
+        <v>0.4083169999999999</v>
       </c>
       <c r="I15">
-        <v>0.1644217723069316</v>
+        <v>0.08168154147036055</v>
       </c>
       <c r="J15">
-        <v>0.1644217723069316</v>
+        <v>0.08559153804713522</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>56.7871225945224</v>
+        <v>0.655122</v>
       </c>
       <c r="N15">
-        <v>56.7871225945224</v>
+        <v>1.965366</v>
       </c>
       <c r="O15">
-        <v>0.7469475027972082</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P15">
-        <v>0.7469475027972082</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q15">
-        <v>10.40779234497337</v>
+        <v>0.08916581655799999</v>
       </c>
       <c r="R15">
-        <v>10.40779234497337</v>
+        <v>0.8024923490219998</v>
       </c>
       <c r="S15">
-        <v>0.1228144322301537</v>
+        <v>0.0006515682663545424</v>
       </c>
       <c r="T15">
-        <v>0.1228144322301537</v>
+        <v>0.0007400321112084004</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.183277332420736</v>
+        <v>0.1361056666666667</v>
       </c>
       <c r="H16">
-        <v>0.183277332420736</v>
+        <v>0.4083169999999999</v>
       </c>
       <c r="I16">
-        <v>0.1644217723069316</v>
+        <v>0.08168154147036055</v>
       </c>
       <c r="J16">
-        <v>0.1644217723069316</v>
+        <v>0.08559153804713522</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.421752113583795</v>
+        <v>19.068426</v>
       </c>
       <c r="N16">
-        <v>0.421752113583795</v>
+        <v>38.136852</v>
       </c>
       <c r="O16">
-        <v>0.005547502209087931</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P16">
-        <v>0.005547502209087931</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q16">
-        <v>0.07729760232044519</v>
+        <v>2.595320833014</v>
       </c>
       <c r="R16">
-        <v>0.07729760232044519</v>
+        <v>15.571924998084</v>
       </c>
       <c r="S16">
-        <v>0.000912130145094856</v>
+        <v>0.0189649886142274</v>
       </c>
       <c r="T16">
-        <v>0.000912130145094856</v>
+        <v>0.01435991825461634</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.183277332420736</v>
+        <v>0.2020723333333333</v>
       </c>
       <c r="H17">
-        <v>0.183277332420736</v>
+        <v>0.606217</v>
       </c>
       <c r="I17">
-        <v>0.1644217723069316</v>
+        <v>0.1212703341412128</v>
       </c>
       <c r="J17">
-        <v>0.1644217723069316</v>
+        <v>0.1270753983310031</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.918771390257</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N17">
-        <v>17.918771390257</v>
+        <v>3.633172</v>
       </c>
       <c r="O17">
-        <v>0.2356939554538648</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P17">
-        <v>0.2356939554538648</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q17">
-        <v>3.284104620663306</v>
+        <v>0.2447211811471111</v>
       </c>
       <c r="R17">
-        <v>3.284104620663306</v>
+        <v>2.202490630324</v>
       </c>
       <c r="S17">
-        <v>0.03875321787775545</v>
+        <v>0.001788270010812266</v>
       </c>
       <c r="T17">
-        <v>0.03875321787775545</v>
+        <v>0.002031064586549357</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.162649982631416</v>
+        <v>0.2020723333333333</v>
       </c>
       <c r="H18">
-        <v>0.162649982631416</v>
+        <v>0.606217</v>
       </c>
       <c r="I18">
-        <v>0.1459165629307432</v>
+        <v>0.1212703341412128</v>
       </c>
       <c r="J18">
-        <v>0.1459165629307432</v>
+        <v>0.1270753983310031</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.897941217831048</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N18">
-        <v>0.897941217831048</v>
+        <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.01181103953983894</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P18">
-        <v>0.01181103953983894</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q18">
-        <v>0.1460501234842525</v>
+        <v>12.33856887019178</v>
       </c>
       <c r="R18">
-        <v>0.1460501234842525</v>
+        <v>111.047119831726</v>
       </c>
       <c r="S18">
-        <v>0.001723426294292405</v>
+        <v>0.09016257842283712</v>
       </c>
       <c r="T18">
-        <v>0.001723426294292405</v>
+        <v>0.1024040099981458</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.162649982631416</v>
+        <v>0.2020723333333333</v>
       </c>
       <c r="H19">
-        <v>0.162649982631416</v>
+        <v>0.606217</v>
       </c>
       <c r="I19">
-        <v>0.1459165629307432</v>
+        <v>0.1212703341412128</v>
       </c>
       <c r="J19">
-        <v>0.1459165629307432</v>
+        <v>0.1270753983310031</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>56.7871225945224</v>
+        <v>0.132278</v>
       </c>
       <c r="N19">
-        <v>56.7871225945224</v>
+        <v>0.396834</v>
       </c>
       <c r="O19">
-        <v>0.7469475027972082</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P19">
-        <v>0.7469475027972082</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q19">
-        <v>9.236424503687159</v>
+        <v>0.02672972410866667</v>
       </c>
       <c r="R19">
-        <v>9.236424503687159</v>
+        <v>0.240567516978</v>
       </c>
       <c r="S19">
-        <v>0.1089920122978703</v>
+        <v>0.0001953241799371664</v>
       </c>
       <c r="T19">
-        <v>0.1089920122978703</v>
+        <v>0.0002218434701519024</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.162649982631416</v>
+        <v>0.2020723333333333</v>
       </c>
       <c r="H20">
-        <v>0.162649982631416</v>
+        <v>0.606217</v>
       </c>
       <c r="I20">
-        <v>0.1459165629307432</v>
+        <v>0.1212703341412128</v>
       </c>
       <c r="J20">
-        <v>0.1459165629307432</v>
+        <v>0.1270753983310031</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421752113583795</v>
+        <v>0.655122</v>
       </c>
       <c r="N20">
-        <v>0.421752113583795</v>
+        <v>1.965366</v>
       </c>
       <c r="O20">
-        <v>0.005547502209087931</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P20">
-        <v>0.005547502209087931</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q20">
-        <v>0.06859797394916725</v>
+        <v>0.132382031158</v>
       </c>
       <c r="R20">
-        <v>0.06859797394916725</v>
+        <v>1.191438280422</v>
       </c>
       <c r="S20">
-        <v>0.0008094724552008161</v>
+        <v>0.0009673654531274763</v>
       </c>
       <c r="T20">
-        <v>0.0008094724552008161</v>
+        <v>0.001098705286236975</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.162649982631416</v>
+        <v>0.2020723333333333</v>
       </c>
       <c r="H21">
-        <v>0.162649982631416</v>
+        <v>0.606217</v>
       </c>
       <c r="I21">
-        <v>0.1459165629307432</v>
+        <v>0.1212703341412128</v>
       </c>
       <c r="J21">
-        <v>0.1459165629307432</v>
+        <v>0.1270753983310031</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.918771390257</v>
+        <v>19.068426</v>
       </c>
       <c r="N21">
-        <v>17.918771390257</v>
+        <v>38.136852</v>
       </c>
       <c r="O21">
-        <v>0.2356939554538648</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P21">
-        <v>0.2356939554538648</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q21">
-        <v>2.914487855401615</v>
+        <v>3.853201334814</v>
       </c>
       <c r="R21">
-        <v>2.914487855401615</v>
+        <v>23.119208008884</v>
       </c>
       <c r="S21">
-        <v>0.03439165188337966</v>
+        <v>0.02815679607449872</v>
       </c>
       <c r="T21">
-        <v>0.03439165188337966</v>
+        <v>0.021319774989919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2283595</v>
+      </c>
+      <c r="H22">
+        <v>0.456719</v>
+      </c>
+      <c r="I22">
+        <v>0.1370461379472381</v>
+      </c>
+      <c r="J22">
+        <v>0.0957375805204034</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.211057333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.633172</v>
+      </c>
+      <c r="O22">
+        <v>0.0147461456544675</v>
+      </c>
+      <c r="P22">
+        <v>0.01598314554371009</v>
+      </c>
+      <c r="Q22">
+        <v>0.2765564471113334</v>
+      </c>
+      <c r="R22">
+        <v>1.659338682668</v>
+      </c>
+      <c r="S22">
+        <v>0.002020902311552218</v>
+      </c>
+      <c r="T22">
+        <v>0.001530187683460272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2283595</v>
+      </c>
+      <c r="H23">
+        <v>0.456719</v>
+      </c>
+      <c r="I23">
+        <v>0.1370461379472381</v>
+      </c>
+      <c r="J23">
+        <v>0.0957375805204034</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N23">
+        <v>183.180478</v>
+      </c>
+      <c r="O23">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P23">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q23">
+        <v>13.94366745528033</v>
+      </c>
+      <c r="R23">
+        <v>83.66200473168199</v>
+      </c>
+      <c r="S23">
+        <v>0.1018916394328262</v>
+      </c>
+      <c r="T23">
+        <v>0.07715035547063702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2283595</v>
+      </c>
+      <c r="H24">
+        <v>0.456719</v>
+      </c>
+      <c r="I24">
+        <v>0.1370461379472381</v>
+      </c>
+      <c r="J24">
+        <v>0.0957375805204034</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.132278</v>
+      </c>
+      <c r="N24">
+        <v>0.396834</v>
+      </c>
+      <c r="O24">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P24">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q24">
+        <v>0.030206937941</v>
+      </c>
+      <c r="R24">
+        <v>0.181241627646</v>
+      </c>
+      <c r="S24">
+        <v>0.0002207334934604012</v>
+      </c>
+      <c r="T24">
+        <v>0.0001671350817352642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2283595</v>
+      </c>
+      <c r="H25">
+        <v>0.456719</v>
+      </c>
+      <c r="I25">
+        <v>0.1370461379472381</v>
+      </c>
+      <c r="J25">
+        <v>0.0957375805204034</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.655122</v>
+      </c>
+      <c r="N25">
+        <v>1.965366</v>
+      </c>
+      <c r="O25">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P25">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q25">
+        <v>0.149603332359</v>
+      </c>
+      <c r="R25">
+        <v>0.897619994154</v>
+      </c>
+      <c r="S25">
+        <v>0.001093207999083483</v>
+      </c>
+      <c r="T25">
+        <v>0.0008277557040216044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.2283595</v>
+      </c>
+      <c r="H26">
+        <v>0.456719</v>
+      </c>
+      <c r="I26">
+        <v>0.1370461379472381</v>
+      </c>
+      <c r="J26">
+        <v>0.0957375805204034</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.068426</v>
+      </c>
+      <c r="N26">
+        <v>38.136852</v>
+      </c>
+      <c r="O26">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P26">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q26">
+        <v>4.354456227147</v>
+      </c>
+      <c r="R26">
+        <v>17.417824908588</v>
+      </c>
+      <c r="S26">
+        <v>0.03181965471031573</v>
+      </c>
+      <c r="T26">
+        <v>0.01606214658054923</v>
       </c>
     </row>
   </sheetData>
